--- a/data/gmin/2024-06-03_gmin_pv_dry_weights.xlsx
+++ b/data/gmin/2024-06-03_gmin_pv_dry_weights.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\gmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\data\gmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39671C-9997-425B-A1F9-0E86F8044A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71E8C7-716A-4321-BBCA-40937F06FCDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" xr2:uid="{3DA12F06-CC38-4FCB-B411-AC50820B7DC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="gmin" sheetId="1" r:id="rId1"/>
+    <sheet name="pv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>empty bowl</t>
   </si>
@@ -61,6 +62,45 @@
   </si>
   <si>
     <t>final_mass_g</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>FASY_01</t>
+  </si>
+  <si>
+    <t>FASY_02</t>
+  </si>
+  <si>
+    <t>FASY_03</t>
+  </si>
+  <si>
+    <t>FASY_04</t>
+  </si>
+  <si>
+    <t>FREX_05</t>
+  </si>
+  <si>
+    <t>FREX_08</t>
+  </si>
+  <si>
+    <t>FREX_07</t>
+  </si>
+  <si>
+    <t>FREX_06</t>
+  </si>
+  <si>
+    <t>FASY_</t>
+  </si>
+  <si>
+    <t>FREX_</t>
+  </si>
+  <si>
+    <t>dry_weight_g</t>
   </si>
 </sst>
 </file>
@@ -413,591 +453,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B314ED3-1668-45C2-880A-FD24C6B85E7E}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>5.9387999999999996</v>
       </c>
-      <c r="E2">
-        <f>D2-$D$2</f>
+      <c r="G2">
+        <f>F2-$F$2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>45446</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>6.0890000000000004</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">D3-$D$2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="0">F3-$F$2</f>
         <v>0.15020000000000078</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>6.0919999999999996</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>0.1532</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>6.1055000000000001</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>0.16670000000000051</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>6.0613000000000001</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>0.1225000000000005</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>6.2693000000000003</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>0.33050000000000068</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>6.2949000000000002</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>0.35610000000000053</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>6.1946000000000003</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>0.25580000000000069</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>6.5256999999999996</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>0.58689999999999998</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1835</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0.1145</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>6.2102000000000004</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.27140000000000075</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="G15">
+        <v>1.0401</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>6.9630999999999998</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1.0243000000000002</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="G16">
+        <v>1.4621999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>6.3513999999999999</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.4126000000000003</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="G17">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>6.2717999999999998</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.33300000000000018</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>6.2961</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.3573000000000004</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>6.2892000000000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.35040000000000049</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>6.9882</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1.0494000000000003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>7.3663999999999996</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1.4276</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>6.9748999999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1.0361000000000002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>7.806</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1.8672000000000004</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>7.0099</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1.0711000000000004</v>
-      </c>
-      <c r="F21" s="1">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0.1835</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>0.1145</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>0.20469999999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="F25" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1.0401</v>
-      </c>
-      <c r="F26" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1.4621999999999999</v>
-      </c>
-      <c r="F27" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="F28" s="1">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="E29">
+      <c r="G18">
         <v>0.8468</v>
       </c>
-      <c r="F29" s="1">
+      <c r="H18" s="1">
         <v>45483</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370C3693-93A8-4171-A816-1CE97EDE3558}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5.9387999999999996</v>
+      </c>
+      <c r="G2">
+        <f>F2-$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6.2102000000000004</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="0">F3-$F$2</f>
+        <v>0.27140000000000075</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>6.9630999999999998</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.0243000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>6.3513999999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.4126000000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>6.2717999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.33300000000000018</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>6.2961</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.3573000000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>6.2892000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.35040000000000049</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>6.9882</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.0494000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>7.3663999999999996</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.4276</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>6.9748999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.0361000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>7.806</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.8672000000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>7.0099</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.0711000000000004</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>